--- a/src/collections/OJ/BoneTroopGen.xlsx
+++ b/src/collections/OJ/BoneTroopGen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joser\Documents\GitHub\ImageGen-main\ImageGen-main\src\collections\OJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f30736e284a438bb/Documents/GitHub/pfpgen/src/collections/OJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C0830-73E4-4623-AC56-95D2C686DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3D7C0830-73E4-4623-AC56-95D2C686DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DC5BD4-A088-4C3D-A27A-6DF1FD2A0BA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15990" xr2:uid="{E70FE35A-380B-CA41-BF02-0C6C7926FEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E70FE35A-380B-CA41-BF02-0C6C7926FEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,13 +431,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9A3DD8-4154-044E-9F1E-75A75344028B}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5:X18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,63 +765,68 @@
     <col min="4" max="4" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="53.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="12" max="12" width="45.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="40.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="40.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.125" customWidth="1"/>
+    <col min="21" max="21" width="43.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21" customWidth="1"/>
     <col min="24" max="24" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -887,7 +892,7 @@
       <c r="B5">
         <v>650</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, A5, """, ""count"" : ", B5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Red_Black_Base", "count" : 650 }, </v>
       </c>
@@ -897,7 +902,7 @@
       <c r="E5">
         <v>500</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, D5, """, ""count"" : ", E5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Cave_Background", "count" : 500 }, </v>
       </c>
@@ -907,7 +912,7 @@
       <c r="H5">
         <v>750</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, G5, """, ""count"" : ", H5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Blue_Bands", "count" : 750 }, </v>
       </c>
@@ -917,7 +922,7 @@
       <c r="K5">
         <v>750</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, J5, """, ""count"" : ", K5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Pink_Spike_Shoulder", "count" : 750 }, </v>
       </c>
@@ -927,7 +932,7 @@
       <c r="N5">
         <v>500</v>
       </c>
-      <c r="O5" s="5" t="str">
+      <c r="O5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, M5, """, ""count"" : ", N5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Black_Mohawk", "count" : 500 }, </v>
       </c>
@@ -937,7 +942,7 @@
       <c r="Q5">
         <v>500</v>
       </c>
-      <c r="R5" s="5" t="str">
+      <c r="R5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, P5, """, ""count"" : ", Q5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Purple_Pink_Shoes", "count" : 500 }, </v>
       </c>
@@ -947,7 +952,7 @@
       <c r="T5">
         <v>500</v>
       </c>
-      <c r="U5" s="5" t="str">
+      <c r="U5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, S5, """, ""count"" : ", T5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Purple_Dagger", "count" : 500 }, </v>
       </c>
@@ -957,7 +962,7 @@
       <c r="W5">
         <v>250</v>
       </c>
-      <c r="X5" s="5" t="str">
+      <c r="X5" s="3" t="str">
         <f>_xlfn.CONCAT(" { ""name"": """, V5, """, ""count"" : ", W5, " }, ")</f>
         <v xml:space="preserve"> { "name": "Orange_Horned_Pet", "count" : 250 }, </v>
       </c>
@@ -969,7 +974,7 @@
       <c r="B6">
         <v>650</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C16" si="0">_xlfn.CONCAT(" { ""name"": """, A6, """, ""count"" : ", B6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Orange_Blue_Base", "count" : 650 }, </v>
       </c>
@@ -979,7 +984,7 @@
       <c r="E6">
         <v>500</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="3" t="str">
         <f t="shared" ref="F6:F18" si="1">_xlfn.CONCAT(" { ""name"": """, D6, """, ""count"" : ", E6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Forest_Background", "count" : 500 }, </v>
       </c>
@@ -989,7 +994,7 @@
       <c r="H6">
         <v>750</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="3" t="str">
         <f t="shared" ref="I6:I12" si="2">_xlfn.CONCAT(" { ""name"": """, G6, """, ""count"" : ", H6, " }, ")</f>
         <v xml:space="preserve"> { "name": "FireBall", "count" : 750 }, </v>
       </c>
@@ -999,7 +1004,7 @@
       <c r="K6">
         <v>750</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="3" t="str">
         <f t="shared" ref="L6:L18" si="3">_xlfn.CONCAT(" { ""name"": """, J6, """, ""count"" : ", K6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Blue_Shoulder", "count" : 750 }, </v>
       </c>
@@ -1009,7 +1014,7 @@
       <c r="N6">
         <v>750</v>
       </c>
-      <c r="O6" s="5" t="str">
+      <c r="O6" s="3" t="str">
         <f t="shared" ref="O6:O17" si="4">_xlfn.CONCAT(" { ""name"": """, M6, """, ""count"" : ", N6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Yellow_Horns", "count" : 750 }, </v>
       </c>
@@ -1019,7 +1024,7 @@
       <c r="Q6">
         <v>1000</v>
       </c>
-      <c r="R6" s="5" t="str">
+      <c r="R6" s="3" t="str">
         <f t="shared" ref="R6:R15" si="5">_xlfn.CONCAT(" { ""name"": """, P6, """, ""count"" : ", Q6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Pink_Shoes", "count" : 1000 }, </v>
       </c>
@@ -1029,7 +1034,7 @@
       <c r="T6">
         <v>750</v>
       </c>
-      <c r="U6" s="5" t="str">
+      <c r="U6" s="3" t="str">
         <f t="shared" ref="U6:U18" si="6">_xlfn.CONCAT(" { ""name"": """, S6, """, ""count"" : ", T6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Pink_CrossSwords", "count" : 750 }, </v>
       </c>
@@ -1039,7 +1044,7 @@
       <c r="W6">
         <v>1250</v>
       </c>
-      <c r="X6" s="5" t="str">
+      <c r="X6" s="3" t="str">
         <f t="shared" ref="X6:X18" si="7">_xlfn.CONCAT(" { ""name"": """, V6, """, ""count"" : ", W6, " }, ")</f>
         <v xml:space="preserve"> { "name": "Pink_HotAir_Balloon", "count" : 1250 }, </v>
       </c>
@@ -1051,7 +1056,7 @@
       <c r="B7">
         <v>1000</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Tan_Base", "count" : 1000 }, </v>
       </c>
@@ -1061,7 +1066,7 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Moon_Background", "count" : 100 }, </v>
       </c>
@@ -1071,7 +1076,7 @@
       <c r="H7">
         <v>750</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "Mace", "count" : 750 }, </v>
       </c>
@@ -1081,7 +1086,7 @@
       <c r="K7">
         <v>750</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Black_Spike_Shoulder", "count" : 750 }, </v>
       </c>
@@ -1091,7 +1096,7 @@
       <c r="N7">
         <v>750</v>
       </c>
-      <c r="O7" s="5" t="str">
+      <c r="O7" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Wizard_Hat", "count" : 750 }, </v>
       </c>
@@ -1101,7 +1106,7 @@
       <c r="Q7">
         <v>750</v>
       </c>
-      <c r="R7" s="5" t="str">
+      <c r="R7" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Gray_Boots", "count" : 750 }, </v>
       </c>
@@ -1111,7 +1116,7 @@
       <c r="T7">
         <v>750</v>
       </c>
-      <c r="U7" s="5" t="str">
+      <c r="U7" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Brown_Handle_Sword", "count" : 750 }, </v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="W7">
         <v>1250</v>
       </c>
-      <c r="X7" s="5" t="str">
+      <c r="X7" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Red_Devil_Pet", "count" : 1250 }, </v>
       </c>
@@ -1133,7 +1138,7 @@
       <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Yellow_Base", "count" : 1000 }, </v>
       </c>
@@ -1143,7 +1148,7 @@
       <c r="E8">
         <v>400</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Green_Castle_Background", "count" : 400 }, </v>
       </c>
@@ -1153,7 +1158,7 @@
       <c r="H8">
         <v>250</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "FireFist", "count" : 250 }, </v>
       </c>
@@ -1163,7 +1168,7 @@
       <c r="K8">
         <v>250</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Purple_Fire_Shoulder", "count" : 250 }, </v>
       </c>
@@ -1173,7 +1178,7 @@
       <c r="N8">
         <v>1000</v>
       </c>
-      <c r="O8" s="5" t="str">
+      <c r="O8" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Pirate_Hat", "count" : 1000 }, </v>
       </c>
@@ -1183,7 +1188,7 @@
       <c r="Q8">
         <v>500</v>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "White_Socks", "count" : 500 }, </v>
       </c>
@@ -1193,7 +1198,7 @@
       <c r="T8">
         <v>1000</v>
       </c>
-      <c r="U8" s="5" t="str">
+      <c r="U8" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Red_Handle_Sword", "count" : 1000 }, </v>
       </c>
@@ -1203,7 +1208,7 @@
       <c r="W8">
         <v>1250</v>
       </c>
-      <c r="X8" s="5" t="str">
+      <c r="X8" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Yellow_Snake_Pet", "count" : 1250 }, </v>
       </c>
@@ -1215,7 +1220,7 @@
       <c r="B9">
         <v>750</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Black_Base", "count" : 750 }, </v>
       </c>
@@ -1225,7 +1230,7 @@
       <c r="E9">
         <v>1500</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Purple_Background", "count" : 1500 }, </v>
       </c>
@@ -1235,7 +1240,7 @@
       <c r="H9">
         <v>750</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "Heart", "count" : 750 }, </v>
       </c>
@@ -1245,7 +1250,7 @@
       <c r="K9">
         <v>1000</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Yellow_Spike_Shoulder", "count" : 1000 }, </v>
       </c>
@@ -1255,7 +1260,7 @@
       <c r="N9">
         <v>750</v>
       </c>
-      <c r="O9" s="5" t="str">
+      <c r="O9" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Black_Horns", "count" : 750 }, </v>
       </c>
@@ -1265,7 +1270,7 @@
       <c r="Q9">
         <v>750</v>
       </c>
-      <c r="R9" s="5" t="str">
+      <c r="R9" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Red_Black_Shoes", "count" : 750 }, </v>
       </c>
@@ -1275,7 +1280,7 @@
       <c r="T9">
         <v>750</v>
       </c>
-      <c r="U9" s="5" t="str">
+      <c r="U9" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Light_Saber", "count" : 750 }, </v>
       </c>
@@ -1285,7 +1290,7 @@
       <c r="W9">
         <v>250</v>
       </c>
-      <c r="X9" s="5" t="str">
+      <c r="X9" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Money_Bag_Pet", "count" : 250 }, </v>
       </c>
@@ -1297,7 +1302,7 @@
       <c r="B10">
         <v>750</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Pink_Outline_Base", "count" : 750 }, </v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="E10">
         <v>1500</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Pink_Background", "count" : 1500 }, </v>
       </c>
@@ -1317,7 +1322,7 @@
       <c r="H10">
         <v>750</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "Boxing_Glove", "count" : 750 }, </v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="K10">
         <v>250</v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Parrot_Shoulder", "count" : 250 }, </v>
       </c>
@@ -1337,7 +1342,7 @@
       <c r="N10">
         <v>750</v>
       </c>
-      <c r="O10" s="5" t="str">
+      <c r="O10" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Black_RedTip_Hair", "count" : 750 }, </v>
       </c>
@@ -1347,7 +1352,7 @@
       <c r="Q10">
         <v>1000</v>
       </c>
-      <c r="R10" s="5" t="str">
+      <c r="R10" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Brown_Boots", "count" : 1000 }, </v>
       </c>
@@ -1357,7 +1362,7 @@
       <c r="T10">
         <v>500</v>
       </c>
-      <c r="U10" s="5" t="str">
+      <c r="U10" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Black_Sword", "count" : 500 }, </v>
       </c>
@@ -1367,7 +1372,7 @@
       <c r="W10">
         <v>750</v>
       </c>
-      <c r="X10" s="5" t="str">
+      <c r="X10" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "YinYang_Fish", "count" : 750 }, </v>
       </c>
@@ -1379,7 +1384,7 @@
       <c r="B11">
         <v>2000</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "White_Base", "count" : 2000 }, </v>
       </c>
@@ -1389,7 +1394,7 @@
       <c r="E11">
         <v>400</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "BlueStripe_Background", "count" : 400 }, </v>
       </c>
@@ -1399,7 +1404,7 @@
       <c r="H11">
         <v>250</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "Hook", "count" : 250 }, </v>
       </c>
@@ -1409,7 +1414,7 @@
       <c r="K11">
         <v>750</v>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Blue_Drapped_Shoulder", "count" : 750 }, </v>
       </c>
@@ -1419,7 +1424,7 @@
       <c r="N11">
         <v>500</v>
       </c>
-      <c r="O11" s="5" t="str">
+      <c r="O11" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Pink_Horns", "count" : 500 }, </v>
       </c>
@@ -1429,7 +1434,7 @@
       <c r="Q11">
         <v>1500</v>
       </c>
-      <c r="R11" s="5" t="str">
+      <c r="R11" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Brown_Shoes", "count" : 1500 }, </v>
       </c>
@@ -1439,7 +1444,7 @@
       <c r="T11">
         <v>1000</v>
       </c>
-      <c r="U11" s="5" t="str">
+      <c r="U11" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Fire_Sword", "count" : 1000 }, </v>
       </c>
@@ -1449,7 +1454,7 @@
       <c r="W11">
         <v>500</v>
       </c>
-      <c r="X11" s="5" t="str">
+      <c r="X11" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Wrapped_Pet", "count" : 500 }, </v>
       </c>
@@ -1461,7 +1466,7 @@
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Blue_Outline_Base", "count" : 1000 }, </v>
       </c>
@@ -1471,7 +1476,7 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Black_Pink_Diamond_Background", "count" : 100 }, </v>
       </c>
@@ -1481,7 +1486,7 @@
       <c r="H12">
         <v>5750</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { "name": "Blank", "count" : 5750 }, </v>
       </c>
@@ -1491,7 +1496,7 @@
       <c r="K12">
         <v>1000</v>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Yellow_Horn_Shoulder", "count" : 1000 }, </v>
       </c>
@@ -1501,7 +1506,7 @@
       <c r="N12">
         <v>750</v>
       </c>
-      <c r="O12" s="5" t="str">
+      <c r="O12" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Blue_Hair", "count" : 750 }, </v>
       </c>
@@ -1511,7 +1516,7 @@
       <c r="Q12">
         <v>500</v>
       </c>
-      <c r="R12" s="5" t="str">
+      <c r="R12" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Black_Red_Shoes", "count" : 500 }, </v>
       </c>
@@ -1521,7 +1526,7 @@
       <c r="T12">
         <v>750</v>
       </c>
-      <c r="U12" s="5" t="str">
+      <c r="U12" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Blue_Sword", "count" : 750 }, </v>
       </c>
@@ -1531,7 +1536,7 @@
       <c r="W12">
         <v>500</v>
       </c>
-      <c r="X12" s="5" t="str">
+      <c r="X12" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Green_Snake", "count" : 500 }, </v>
       </c>
@@ -1543,7 +1548,7 @@
       <c r="B13">
         <v>650</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Pink_Base", "count" : 650 }, </v>
       </c>
@@ -1553,7 +1558,7 @@
       <c r="E13">
         <v>500</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "White_Background", "count" : 500 }, </v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="K13">
         <v>500</v>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Melted_Shoulder", "count" : 500 }, </v>
       </c>
@@ -1573,7 +1578,7 @@
       <c r="N13">
         <v>500</v>
       </c>
-      <c r="O13" s="5" t="str">
+      <c r="O13" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Red_Spike_Hair", "count" : 500 }, </v>
       </c>
@@ -1583,7 +1588,7 @@
       <c r="Q13">
         <v>1000</v>
       </c>
-      <c r="R13" s="5" t="str">
+      <c r="R13" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Yellow_Shoes", "count" : 1000 }, </v>
       </c>
@@ -1593,7 +1598,7 @@
       <c r="T13">
         <v>1000</v>
       </c>
-      <c r="U13" s="5" t="str">
+      <c r="U13" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "LolliPop", "count" : 1000 }, </v>
       </c>
@@ -1603,7 +1608,7 @@
       <c r="W13">
         <v>500</v>
       </c>
-      <c r="X13" s="5" t="str">
+      <c r="X13" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Red_Flying_Mouth", "count" : 500 }, </v>
       </c>
@@ -1615,7 +1620,7 @@
       <c r="B14">
         <v>650</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Black_RedEye_Base", "count" : 650 }, </v>
       </c>
@@ -1625,7 +1630,7 @@
       <c r="E14">
         <v>1500</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "White_Background", "count" : 1500 }, </v>
       </c>
@@ -1635,7 +1640,7 @@
       <c r="K14">
         <v>2000</v>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Brown_Shoulder", "count" : 2000 }, </v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="N14">
         <v>1000</v>
       </c>
-      <c r="O14" s="5" t="str">
+      <c r="O14" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Brown_Helmet", "count" : 1000 }, </v>
       </c>
@@ -1655,7 +1660,7 @@
       <c r="Q14">
         <v>1000</v>
       </c>
-      <c r="R14" s="5" t="str">
+      <c r="R14" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Blue_Boots", "count" : 1000 }, </v>
       </c>
@@ -1665,7 +1670,7 @@
       <c r="T14">
         <v>500</v>
       </c>
-      <c r="U14" s="5" t="str">
+      <c r="U14" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Black_Red_Sword", "count" : 500 }, </v>
       </c>
@@ -1675,7 +1680,7 @@
       <c r="W14">
         <v>1250</v>
       </c>
-      <c r="X14" s="5" t="str">
+      <c r="X14" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Flying_Heart", "count" : 1250 }, </v>
       </c>
@@ -1687,7 +1692,7 @@
       <c r="B15">
         <v>650</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Red_RedEye_Base", "count" : 650 }, </v>
       </c>
@@ -1697,7 +1702,7 @@
       <c r="E15">
         <v>500</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Pink_Blotch_Background", "count" : 500 }, </v>
       </c>
@@ -1707,7 +1712,7 @@
       <c r="K15">
         <v>250</v>
       </c>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Winged_Shoulder", "count" : 250 }, </v>
       </c>
@@ -1717,7 +1722,7 @@
       <c r="N15">
         <v>1000</v>
       </c>
-      <c r="O15" s="5" t="str">
+      <c r="O15" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Pink_Ears", "count" : 1000 }, </v>
       </c>
@@ -1727,7 +1732,7 @@
       <c r="Q15">
         <v>1500</v>
       </c>
-      <c r="R15" s="5" t="str">
+      <c r="R15" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> { "name": "Black_Boots", "count" : 1500 }, </v>
       </c>
@@ -1737,7 +1742,7 @@
       <c r="T15">
         <v>750</v>
       </c>
-      <c r="U15" s="5" t="str">
+      <c r="U15" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Purple_Bow", "count" : 750 }, </v>
       </c>
@@ -1747,7 +1752,7 @@
       <c r="W15">
         <v>500</v>
       </c>
-      <c r="X15" s="5" t="str">
+      <c r="X15" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Blue_Fire", "count" : 500 }, </v>
       </c>
@@ -1759,7 +1764,7 @@
       <c r="B16">
         <v>250</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> { "name": "Marbled_Base", "count" : 250 }, </v>
       </c>
@@ -1769,7 +1774,7 @@
       <c r="E16">
         <v>500</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Industrial Background", "count" : 500 }, </v>
       </c>
@@ -1779,7 +1784,7 @@
       <c r="K16">
         <v>500</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Orange_Fire_Shoulder", "count" : 500 }, </v>
       </c>
@@ -1789,7 +1794,7 @@
       <c r="N16">
         <v>1000</v>
       </c>
-      <c r="O16" s="5" t="str">
+      <c r="O16" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "HardHat", "count" : 1000 }, </v>
       </c>
@@ -1799,7 +1804,7 @@
       <c r="T16">
         <v>500</v>
       </c>
-      <c r="U16" s="5" t="str">
+      <c r="U16" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Yellow_Bow", "count" : 500 }, </v>
       </c>
@@ -1809,7 +1814,7 @@
       <c r="W16">
         <v>250</v>
       </c>
-      <c r="X16" s="5" t="str">
+      <c r="X16" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Pink_Frog", "count" : 250 }, </v>
       </c>
@@ -1821,7 +1826,7 @@
       <c r="E17">
         <v>500</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Red_Background", "count" : 500 }, </v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="K17">
         <v>1000</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Badge_Shoulder", "count" : 1000 }, </v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="N17">
         <v>750</v>
       </c>
-      <c r="O17" s="5" t="str">
+      <c r="O17" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> { "name": "Crown", "count" : 750 }, </v>
       </c>
@@ -1851,7 +1856,7 @@
       <c r="T17">
         <v>500</v>
       </c>
-      <c r="U17" s="5" t="str">
+      <c r="U17" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Axe", "count" : 500 }, </v>
       </c>
@@ -1861,7 +1866,7 @@
       <c r="W17">
         <v>1000</v>
       </c>
-      <c r="X17" s="5" t="str">
+      <c r="X17" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Ghost_Dog", "count" : 1000 }, </v>
       </c>
@@ -1873,7 +1878,7 @@
       <c r="E18">
         <v>1500</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> { "name": "Blue_Background", "count" : 1500 }, </v>
       </c>
@@ -1883,7 +1888,7 @@
       <c r="K18">
         <v>250</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> { "name": "Pink_Dragon_Shoulder", "count" : 250 }, </v>
       </c>
@@ -1893,7 +1898,7 @@
       <c r="T18">
         <v>750</v>
       </c>
-      <c r="U18" s="5" t="str">
+      <c r="U18" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> { "name": "Hammer", "count" : 750 }, </v>
       </c>
@@ -1903,7 +1908,7 @@
       <c r="W18">
         <v>500</v>
       </c>
-      <c r="X18" s="5" t="str">
+      <c r="X18" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> { "name": "Horned_Ghost", "count" : 500 }, </v>
       </c>
